--- a/example_monitoring/example.xlsx
+++ b/example_monitoring/example.xlsx
@@ -7,8 +7,8 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Network" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="General" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="General" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Network" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -346,7 +346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -367,1385 +367,1176 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>eth0_bytes_sent</t>
+          <t>cpu_freq_current</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>eth0_bytes_received</t>
+          <t>cpu_freq_total</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>eth0_packets_sent</t>
+          <t>cpu_freq_percent</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>eth0_packets_received</t>
+          <t>cpu_running_pids</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>wlan0_bytes_sent</t>
+          <t>ram_percent</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>wlan0_bytes_received</t>
+          <t>ram_currently_used</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>wlan0_packets_sent</t>
+          <t>ram_total</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>wlan0_packets_received</t>
+          <t>swap_percent</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>sconn1_local_address_ip_port</t>
+          <t>swap_currently_used</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>sconn2_local_address_ip_port</t>
+          <t>swap_total</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>eth0_ip_address_1</t>
+          <t>'/dev/root_percent'</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>eth0_netmask_1</t>
+          <t>'/dev/mmcblk0p1_percent'</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>wlan0_ip_address_2</t>
+          <t>'/dev/root'</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>wlan0_netmask_2</t>
+          <t>'/dev/mmcblk0p1'</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>wlan0_ip_address_3</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>wlan0_netmask_3</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>wlan0_ip_address_4</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>wlan0_netmask_4</t>
+          <t>cpu_thermal</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2021-04-13</t>
+          <t>2021-04-24</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>22:56:42</t>
+          <t>19:32:22</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="G2" t="n">
-        <v>2946180</v>
+        <v>40.3</v>
       </c>
       <c r="H2" t="n">
-        <v>21984781</v>
+        <v>372.8828125</v>
       </c>
       <c r="I2" t="n">
-        <v>13655</v>
+        <v>926.078125</v>
       </c>
       <c r="J2" t="n">
-        <v>22952</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>192.168.137.137_22</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>192.168.137.1_55247</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>b8:27:eb:6a:ed:90</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>99.99609375</v>
+      </c>
+      <c r="M2" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="N2" t="n">
+        <v>51.7</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>192.168.137.137</t>
+          <t>'4.02935791015625 GB'</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>fe80::5a8f:f2e:30fd:e06f%wlan0</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>ffff:ffff:ffff:ffff::</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>b8:27:eb:3f:b8:c5</t>
-        </is>
+          <t>'22.3203125 MB'</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
+        <v>53.692</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2021-04-13</t>
+          <t>2021-04-24</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>22:56:45</t>
+          <t>19:32:37</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="G3" t="n">
-        <v>2949332</v>
+        <v>40.3</v>
       </c>
       <c r="H3" t="n">
-        <v>21985993</v>
+        <v>372.75390625</v>
       </c>
       <c r="I3" t="n">
-        <v>13679</v>
+        <v>926.078125</v>
       </c>
       <c r="J3" t="n">
-        <v>22972</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>192.168.137.137_22</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>192.168.137.1_55247</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>b8:27:eb:6a:ed:90</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>99.99609375</v>
+      </c>
+      <c r="M3" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="N3" t="n">
+        <v>51.7</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>192.168.137.137</t>
+          <t>'4.02935791015625 GB'</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>fe80::5a8f:f2e:30fd:e06f%wlan0</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>ffff:ffff:ffff:ffff::</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>b8:27:eb:3f:b8:c5</t>
-        </is>
+          <t>'22.3203125 MB'</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>53.692</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2021-04-13</t>
+          <t>2021-04-24</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>22:56:47</t>
+          <t>19:32:53</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="G4" t="n">
-        <v>2951882</v>
+        <v>40.3</v>
       </c>
       <c r="H4" t="n">
-        <v>21987613</v>
+        <v>372.96875</v>
       </c>
       <c r="I4" t="n">
-        <v>13698</v>
+        <v>926.078125</v>
       </c>
       <c r="J4" t="n">
-        <v>22992</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>192.168.137.137_22</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>192.168.137.1_55247</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>b8:27:eb:6a:ed:90</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>99.99609375</v>
+      </c>
+      <c r="M4" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>51.7</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>192.168.137.137</t>
+          <t>'4.02935791015625 GB'</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>fe80::5a8f:f2e:30fd:e06f%wlan0</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>ffff:ffff:ffff:ffff::</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>b8:27:eb:3f:b8:c5</t>
-        </is>
+          <t>'22.3203125 MB'</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>52.616</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2021-04-13</t>
+          <t>2021-04-24</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>22:56:50</t>
+          <t>19:33:09</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="G5" t="n">
-        <v>2954062</v>
+        <v>40.3</v>
       </c>
       <c r="H5" t="n">
-        <v>21988969</v>
+        <v>373.45703125</v>
       </c>
       <c r="I5" t="n">
-        <v>13708</v>
+        <v>926.078125</v>
       </c>
       <c r="J5" t="n">
-        <v>23004</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>192.168.137.137_22</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>192.168.137.1_55247</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>b8:27:eb:6a:ed:90</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>99.99609375</v>
+      </c>
+      <c r="M5" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>51.7</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>192.168.137.137</t>
+          <t>'4.02935791015625 GB'</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>fe80::5a8f:f2e:30fd:e06f%wlan0</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>ffff:ffff:ffff:ffff::</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>b8:27:eb:3f:b8:c5</t>
-        </is>
+          <t>'22.3203125 MB'</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>53.154</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2021-04-13</t>
+          <t>2021-04-24</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>22:56:53</t>
+          <t>19:33:24</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="G6" t="n">
-        <v>2954218</v>
+        <v>40.4</v>
       </c>
       <c r="H6" t="n">
-        <v>21989153</v>
+        <v>373.703125</v>
       </c>
       <c r="I6" t="n">
-        <v>13710</v>
+        <v>926.078125</v>
       </c>
       <c r="J6" t="n">
-        <v>23006</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>192.168.137.137_22</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>192.168.137.1_55247</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>b8:27:eb:6a:ed:90</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>99.99609375</v>
+      </c>
+      <c r="M6" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="N6" t="n">
+        <v>51.7</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>192.168.137.137</t>
+          <t>'4.02935791015625 GB'</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>fe80::5a8f:f2e:30fd:e06f%wlan0</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>ffff:ffff:ffff:ffff::</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>b8:27:eb:3f:b8:c5</t>
-        </is>
+          <t>'22.3203125 MB'</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>52.616</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2021-04-13</t>
+          <t>2021-04-24</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>22:56:56</t>
+          <t>19:33:40</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="G7" t="n">
-        <v>3013570</v>
+        <v>40.4</v>
       </c>
       <c r="H7" t="n">
-        <v>21992073</v>
+        <v>373.703125</v>
       </c>
       <c r="I7" t="n">
-        <v>13758</v>
+        <v>926.078125</v>
       </c>
       <c r="J7" t="n">
-        <v>23025</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>192.168.137.137_22</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>192.168.137.1_55247</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>b8:27:eb:6a:ed:90</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>99.99609375</v>
+      </c>
+      <c r="M7" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="N7" t="n">
+        <v>51.7</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>192.168.137.137</t>
+          <t>'4.02935791015625 GB'</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>fe80::5a8f:f2e:30fd:e06f%wlan0</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>ffff:ffff:ffff:ffff::</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>b8:27:eb:3f:b8:c5</t>
-        </is>
+          <t>'22.3203125 MB'</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>52.616</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2021-04-13</t>
+          <t>2021-04-24</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>22:56:59</t>
+          <t>19:33:56</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="G8" t="n">
-        <v>3017636</v>
+        <v>40.3</v>
       </c>
       <c r="H8" t="n">
-        <v>21993298</v>
+        <v>373.6484375</v>
       </c>
       <c r="I8" t="n">
-        <v>13767</v>
+        <v>926.078125</v>
       </c>
       <c r="J8" t="n">
-        <v>23035</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>192.168.137.137_22</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>192.168.137.1_55247</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>b8:27:eb:6a:ed:90</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>99.99609375</v>
+      </c>
+      <c r="M8" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="N8" t="n">
+        <v>51.7</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>192.168.137.137</t>
+          <t>'4.02935791015625 GB'</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>fe80::5a8f:f2e:30fd:e06f%wlan0</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>ffff:ffff:ffff:ffff::</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>b8:27:eb:3f:b8:c5</t>
-        </is>
+          <t>'22.3203125 MB'</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>52.616</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2021-04-13</t>
+          <t>2021-04-24</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>22:57:01</t>
+          <t>19:34:12</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="G9" t="n">
-        <v>3019540</v>
+        <v>40.3</v>
       </c>
       <c r="H9" t="n">
-        <v>21994318</v>
+        <v>373.6484375</v>
       </c>
       <c r="I9" t="n">
-        <v>13773</v>
+        <v>926.078125</v>
       </c>
       <c r="J9" t="n">
-        <v>23042</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>192.168.137.137_22</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>192.168.137.1_55247</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>b8:27:eb:6a:ed:90</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>99.99609375</v>
+      </c>
+      <c r="M9" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="N9" t="n">
+        <v>51.7</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>192.168.137.137</t>
+          <t>'4.02935791015625 GB'</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>fe80::5a8f:f2e:30fd:e06f%wlan0</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>ffff:ffff:ffff:ffff::</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>b8:27:eb:3f:b8:c5</t>
-        </is>
+          <t>'22.3203125 MB'</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>52.616</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2021-04-13</t>
+          <t>2021-04-24</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>22:57:04</t>
+          <t>19:34:28</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="G10" t="n">
-        <v>3019740</v>
+        <v>40.3</v>
       </c>
       <c r="H10" t="n">
-        <v>21994514</v>
+        <v>373.6484375</v>
       </c>
       <c r="I10" t="n">
-        <v>13775</v>
+        <v>926.078125</v>
       </c>
       <c r="J10" t="n">
-        <v>23045</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>192.168.137.137_22</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>192.168.137.1_55247</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>b8:27:eb:6a:ed:90</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>99.99609375</v>
+      </c>
+      <c r="M10" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="N10" t="n">
+        <v>51.7</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>192.168.137.137</t>
+          <t>'4.02935791015625 GB'</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>fe80::5a8f:f2e:30fd:e06f%wlan0</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>ffff:ffff:ffff:ffff::</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>b8:27:eb:3f:b8:c5</t>
-        </is>
+          <t>'22.3203125 MB'</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>52.616</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2021-04-13</t>
+          <t>2021-04-24</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>22:57:07</t>
+          <t>19:34:43</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="G11" t="n">
-        <v>3020018</v>
+        <v>40.3</v>
       </c>
       <c r="H11" t="n">
-        <v>21994730</v>
+        <v>373.6484375</v>
       </c>
       <c r="I11" t="n">
-        <v>13778</v>
+        <v>926.078125</v>
       </c>
       <c r="J11" t="n">
-        <v>23048</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>192.168.137.137_22</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>192.168.137.1_55247</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>b8:27:eb:6a:ed:90</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>99.99609375</v>
+      </c>
+      <c r="M11" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>51.7</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>192.168.137.137</t>
+          <t>'4.02935791015625 GB'</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>fe80::5a8f:f2e:30fd:e06f%wlan0</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>ffff:ffff:ffff:ffff::</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>b8:27:eb:3f:b8:c5</t>
-        </is>
+          <t>'22.3203125 MB'</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>52.616</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2021-04-13</t>
+          <t>2021-04-24</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>22:57:10</t>
+          <t>19:34:59</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="G12" t="n">
-        <v>3020140</v>
+        <v>40.3</v>
       </c>
       <c r="H12" t="n">
-        <v>21994770</v>
+        <v>373.58984375</v>
       </c>
       <c r="I12" t="n">
-        <v>13779</v>
+        <v>926.078125</v>
       </c>
       <c r="J12" t="n">
-        <v>23049</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>192.168.137.137_22</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>192.168.137.1_55247</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>b8:27:eb:6a:ed:90</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>99.99609375</v>
+      </c>
+      <c r="M12" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>51.7</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>192.168.137.137</t>
+          <t>'4.02935791015625 GB'</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>fe80::5a8f:f2e:30fd:e06f%wlan0</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>ffff:ffff:ffff:ffff::</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>b8:27:eb:3f:b8:c5</t>
-        </is>
+          <t>'22.3203125 MB'</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>53.154</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2021-04-13</t>
+          <t>2021-04-24</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>22:57:13</t>
+          <t>19:35:15</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="G13" t="n">
-        <v>3023746</v>
+        <v>40.3</v>
       </c>
       <c r="H13" t="n">
-        <v>21996738</v>
+        <v>373.58984375</v>
       </c>
       <c r="I13" t="n">
-        <v>13790</v>
+        <v>926.078125</v>
       </c>
       <c r="J13" t="n">
-        <v>23061</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>192.168.137.137_22</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>192.168.137.1_55247</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>b8:27:eb:6a:ed:90</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>99.99609375</v>
+      </c>
+      <c r="M13" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>51.7</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>192.168.137.137</t>
+          <t>'4.02935791015625 GB'</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>fe80::5a8f:f2e:30fd:e06f%wlan0</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>ffff:ffff:ffff:ffff::</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>b8:27:eb:3f:b8:c5</t>
-        </is>
+          <t>'22.3203125 MB'</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>52.078</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2021-04-13</t>
+          <t>2021-04-24</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>22:57:16</t>
+          <t>19:35:31</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="G14" t="n">
-        <v>3024068</v>
+        <v>40.3</v>
       </c>
       <c r="H14" t="n">
-        <v>21996910</v>
+        <v>373.5546875</v>
       </c>
       <c r="I14" t="n">
-        <v>13793</v>
+        <v>926.078125</v>
       </c>
       <c r="J14" t="n">
-        <v>23064</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>192.168.137.137_22</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>192.168.137.1_55247</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>b8:27:eb:6a:ed:90</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>99.99609375</v>
+      </c>
+      <c r="M14" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="N14" t="n">
+        <v>51.7</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>192.168.137.137</t>
+          <t>'4.02935791015625 GB'</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>fe80::5a8f:f2e:30fd:e06f%wlan0</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>ffff:ffff:ffff:ffff::</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>b8:27:eb:3f:b8:c5</t>
-        </is>
+          <t>'22.3203125 MB'</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>52.616</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2021-04-13</t>
+          <t>2021-04-24</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>22:57:19</t>
+          <t>19:35:47</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="G15" t="n">
-        <v>3024268</v>
+        <v>40.4</v>
       </c>
       <c r="H15" t="n">
-        <v>21997034</v>
+        <v>373.77734375</v>
       </c>
       <c r="I15" t="n">
-        <v>13795</v>
+        <v>926.078125</v>
       </c>
       <c r="J15" t="n">
-        <v>23066</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>192.168.137.137_22</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>192.168.137.1_55247</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>b8:27:eb:6a:ed:90</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>99.99609375</v>
+      </c>
+      <c r="M15" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="N15" t="n">
+        <v>51.7</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>192.168.137.137</t>
+          <t>'4.02935791015625 GB'</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>fe80::5a8f:f2e:30fd:e06f%wlan0</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>ffff:ffff:ffff:ffff::</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>b8:27:eb:3f:b8:c5</t>
-        </is>
+          <t>'22.3203125 MB'</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>52.616</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2021-04-13</t>
+          <t>2021-04-24</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>22:57:22</t>
+          <t>19:36:03</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="G16" t="n">
-        <v>3026552</v>
+        <v>40.4</v>
       </c>
       <c r="H16" t="n">
-        <v>21998894</v>
+        <v>373.76953125</v>
       </c>
       <c r="I16" t="n">
-        <v>13811</v>
+        <v>926.078125</v>
       </c>
       <c r="J16" t="n">
-        <v>23087</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>192.168.137.137_22</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>192.168.137.1_55247</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>b8:27:eb:6a:ed:90</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>99.99609375</v>
+      </c>
+      <c r="M16" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="N16" t="n">
+        <v>51.7</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>192.168.137.137</t>
+          <t>'4.029365539550781 GB'</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>fe80::5a8f:f2e:30fd:e06f%wlan0</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>ffff:ffff:ffff:ffff::</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>b8:27:eb:3f:b8:c5</t>
-        </is>
+          <t>'22.3203125 MB'</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>52.616</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2021-04-13</t>
+          <t>2021-04-24</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>22:57:25</t>
+          <t>19:36:19</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="G17" t="n">
-        <v>3028124</v>
+        <v>40.4</v>
       </c>
       <c r="H17" t="n">
-        <v>22000186</v>
+        <v>373.765625</v>
       </c>
       <c r="I17" t="n">
-        <v>13823</v>
+        <v>926.078125</v>
       </c>
       <c r="J17" t="n">
-        <v>23103</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>192.168.137.137_22</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>192.168.137.1_55247</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>b8:27:eb:6a:ed:90</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>99.99609375</v>
+      </c>
+      <c r="M17" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="N17" t="n">
+        <v>51.7</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>192.168.137.137</t>
+          <t>'4.029369354248047 GB'</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>fe80::5a8f:f2e:30fd:e06f%wlan0</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>ffff:ffff:ffff:ffff::</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>b8:27:eb:3f:b8:c5</t>
-        </is>
+          <t>'22.3203125 MB'</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>52.616</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2021-04-13</t>
+          <t>2021-04-24</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>22:57:28</t>
+          <t>19:36:35</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="G18" t="n">
-        <v>3031056</v>
+        <v>40.4</v>
       </c>
       <c r="H18" t="n">
-        <v>22002542</v>
+        <v>373.765625</v>
       </c>
       <c r="I18" t="n">
-        <v>13845</v>
+        <v>926.078125</v>
       </c>
       <c r="J18" t="n">
-        <v>23130</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>192.168.137.137_22</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>192.168.137.1_55247</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>b8:27:eb:6a:ed:90</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>99.99609375</v>
+      </c>
+      <c r="M18" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="N18" t="n">
+        <v>51.7</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>192.168.137.137</t>
+          <t>'4.029369354248047 GB'</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>fe80::5a8f:f2e:30fd:e06f%wlan0</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>ffff:ffff:ffff:ffff::</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>b8:27:eb:3f:b8:c5</t>
-        </is>
+          <t>'22.3203125 MB'</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>52.616</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2021-04-24</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>19:36:51</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1400</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1400</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>113</v>
+      </c>
+      <c r="G19" t="n">
+        <v>40.4</v>
+      </c>
+      <c r="H19" t="n">
+        <v>373.70703125</v>
+      </c>
+      <c r="I19" t="n">
+        <v>926.078125</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>99.99609375</v>
+      </c>
+      <c r="M19" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="N19" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>'4.029369354248047 GB'</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>'22.3203125 MB'</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>52.616</v>
       </c>
     </row>
   </sheetData>
@@ -1759,7 +1550,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:V20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1780,1171 +1571,1651 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>cpu_freq_current</t>
+          <t>wlan0_bytes_sent</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>cpu_freq_total</t>
+          <t>wlan0_bytes_received</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>cpu_freq_percent</t>
+          <t>wlan0_packets_sent</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>cpu_running_pids</t>
+          <t>wlan0_packets_received</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>ram_percent</t>
+          <t>eth0_bytes_sent</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>ram_currently_used</t>
+          <t>eth0_bytes_received</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>ram_total</t>
+          <t>eth0_packets_sent</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>swap_percent</t>
+          <t>eth0_packets_received</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>swap_currently_used</t>
+          <t>sconn1_local_address_ip_port</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>swap_total</t>
+          <t>sconn2_local_address_ip_port</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>'/dev/root_percent'</t>
+          <t>wlan0_ip_address_1</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>'/dev/mmcblk0p1_percent'</t>
+          <t>wlan0_netmask_1</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>'/dev/root'</t>
+          <t>eth0_ip_address_2</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>'/dev/mmcblk0p1'</t>
+          <t>eth0_netmask_2</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>cpu_thermal</t>
+          <t>eth0_ip_address_3</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>running_processes</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2021-04-13</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>22:56:42</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>600</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1400</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>124</v>
-      </c>
-      <c r="G2" t="n">
-        <v>34</v>
-      </c>
-      <c r="H2" t="n">
-        <v>317.34765625</v>
-      </c>
-      <c r="I2" t="n">
-        <v>926.078125</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>99.99609375</v>
-      </c>
-      <c r="M2" t="n">
-        <v>7</v>
-      </c>
-      <c r="N2" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>'3.9451065063476562 GB'</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>'22.3203125 MB'</t>
-        </is>
-      </c>
-      <c r="Q2" t="n">
-        <v>52.616</v>
-      </c>
-      <c r="R2" t="n">
-        <v>124</v>
+          <t>eth0_netmask_3</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>eth0_ip_address_4</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>eth0_netmask_4</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>eth0_ip_address_5</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>eth0_netmask_5</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2021-04-13</t>
+          <t>2021-04-24</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>22:56:45</t>
+          <t>19:32:22</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>34</v>
+        <v>13145601</v>
       </c>
       <c r="H3" t="n">
-        <v>318.0546875</v>
+        <v>25480750</v>
       </c>
       <c r="I3" t="n">
-        <v>926.078125</v>
+        <v>64549</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>99.99609375</v>
-      </c>
-      <c r="M3" t="n">
-        <v>7</v>
-      </c>
-      <c r="N3" t="n">
-        <v>51.7</v>
+        <v>80132</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>192.168.8.48_22</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>192.168.8.102_52619</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>b8:27:eb:3f:b8:c5</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>'3.9451217651367188 GB'</t>
+          <t>192.168.8.48</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>'22.3203125 MB'</t>
-        </is>
-      </c>
-      <c r="Q3" t="n">
-        <v>52.616</v>
-      </c>
-      <c r="R3" t="n">
-        <v>124</v>
+          <t>255.255.255.0</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>fd20:54fa:bd3b:af00:7d4:18e1:3330:3d18</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>ffff:ffff:ffff:ffff::</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>fe80::6fe0:ba07:d110:aa76%eth0</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>ffff:ffff:ffff:ffff::</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>b8:27:eb:6a:ed:90</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2021-04-13</t>
+          <t>2021-04-24</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>22:56:47</t>
+          <t>19:32:37</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>34</v>
+        <v>13153465</v>
       </c>
       <c r="H4" t="n">
-        <v>317.91015625</v>
+        <v>25504090</v>
       </c>
       <c r="I4" t="n">
-        <v>926.078125</v>
+        <v>64583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>99.99609375</v>
-      </c>
-      <c r="M4" t="n">
-        <v>7</v>
-      </c>
-      <c r="N4" t="n">
-        <v>51.7</v>
+        <v>80174</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>192.168.8.48_22</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>192.168.8.102_52619</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>b8:27:eb:3f:b8:c5</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>'3.9451217651367188 GB'</t>
+          <t>192.168.8.48</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>'22.3203125 MB'</t>
-        </is>
-      </c>
-      <c r="Q4" t="n">
-        <v>52.616</v>
-      </c>
-      <c r="R4" t="n">
-        <v>118</v>
+          <t>255.255.255.0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>fd20:54fa:bd3b:af00:7d4:18e1:3330:3d18</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>ffff:ffff:ffff:ffff::</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>fe80::6fe0:ba07:d110:aa76%eth0</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>ffff:ffff:ffff:ffff::</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>b8:27:eb:6a:ed:90</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2021-04-13</t>
+          <t>2021-04-24</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>22:56:50</t>
+          <t>19:32:53</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>34</v>
+        <v>13212453</v>
       </c>
       <c r="H5" t="n">
-        <v>317.91015625</v>
+        <v>25506866</v>
       </c>
       <c r="I5" t="n">
-        <v>926.078125</v>
+        <v>64641</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>99.99609375</v>
-      </c>
-      <c r="M5" t="n">
-        <v>7</v>
-      </c>
-      <c r="N5" t="n">
-        <v>51.7</v>
+        <v>80208</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>192.168.8.48_22</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>192.168.8.102_52619</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>b8:27:eb:3f:b8:c5</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>'3.9451255798339844 GB'</t>
+          <t>192.168.8.48</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>'22.3203125 MB'</t>
-        </is>
-      </c>
-      <c r="Q5" t="n">
-        <v>52.078</v>
-      </c>
-      <c r="R5" t="n">
-        <v>118</v>
+          <t>255.255.255.0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>fd20:54fa:bd3b:af00:7d4:18e1:3330:3d18</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>ffff:ffff:ffff:ffff::</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>fe80::6fe0:ba07:d110:aa76%eth0</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>ffff:ffff:ffff:ffff::</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>b8:27:eb:6a:ed:90</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2021-04-13</t>
+          <t>2021-04-24</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>22:56:53</t>
+          <t>19:33:09</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>34</v>
+        <v>13213799</v>
       </c>
       <c r="H6" t="n">
-        <v>317.91015625</v>
+        <v>25508502</v>
       </c>
       <c r="I6" t="n">
-        <v>926.078125</v>
+        <v>64658</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>99.99609375</v>
-      </c>
-      <c r="M6" t="n">
-        <v>7</v>
-      </c>
-      <c r="N6" t="n">
-        <v>51.7</v>
+        <v>80230</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>192.168.8.48_22</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>192.168.8.102_52619</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>b8:27:eb:3f:b8:c5</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>'3.9451255798339844 GB'</t>
+          <t>192.168.8.48</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>'22.3203125 MB'</t>
-        </is>
-      </c>
-      <c r="Q6" t="n">
-        <v>52.616</v>
-      </c>
-      <c r="R6" t="n">
-        <v>118</v>
+          <t>255.255.255.0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>fd20:54fa:bd3b:af00:7d4:18e1:3330:3d18</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>ffff:ffff:ffff:ffff::</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>fe80::6fe0:ba07:d110:aa76%eth0</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>ffff:ffff:ffff:ffff::</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>b8:27:eb:6a:ed:90</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2021-04-13</t>
+          <t>2021-04-24</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>22:56:56</t>
+          <t>19:33:24</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>34</v>
+        <v>13214817</v>
       </c>
       <c r="H7" t="n">
-        <v>318.1015625</v>
+        <v>25509800</v>
       </c>
       <c r="I7" t="n">
-        <v>926.078125</v>
+        <v>64671</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>99.99609375</v>
-      </c>
-      <c r="M7" t="n">
-        <v>7</v>
-      </c>
-      <c r="N7" t="n">
-        <v>51.7</v>
+        <v>80247</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>192.168.8.48_22</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>192.168.8.102_52619</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>b8:27:eb:3f:b8:c5</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>'3.945068359375 GB'</t>
+          <t>192.168.8.48</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>'22.3203125 MB'</t>
-        </is>
-      </c>
-      <c r="Q7" t="n">
-        <v>52.616</v>
-      </c>
-      <c r="R7" t="n">
-        <v>118</v>
+          <t>255.255.255.0</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>fd20:54fa:bd3b:af00:7d4:18e1:3330:3d18</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>ffff:ffff:ffff:ffff::</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>fe80::6fe0:ba07:d110:aa76%eth0</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>ffff:ffff:ffff:ffff::</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>b8:27:eb:6a:ed:90</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2021-04-13</t>
+          <t>2021-04-24</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>22:56:59</t>
+          <t>19:33:40</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>34</v>
+        <v>13215943</v>
       </c>
       <c r="H8" t="n">
-        <v>318.1640625</v>
+        <v>25511389</v>
       </c>
       <c r="I8" t="n">
-        <v>926.078125</v>
+        <v>64686</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>99.99609375</v>
-      </c>
-      <c r="M8" t="n">
-        <v>7</v>
-      </c>
-      <c r="N8" t="n">
-        <v>51.7</v>
+        <v>80267</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>192.168.8.48_22</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>192.168.8.102_52619</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>b8:27:eb:3f:b8:c5</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>'3.945068359375 GB'</t>
+          <t>192.168.8.48</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>'22.3203125 MB'</t>
-        </is>
-      </c>
-      <c r="Q8" t="n">
-        <v>52.616</v>
-      </c>
-      <c r="R8" t="n">
-        <v>118</v>
+          <t>255.255.255.0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>fd20:54fa:bd3b:af00:7d4:18e1:3330:3d18</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>ffff:ffff:ffff:ffff::</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>fe80::6fe0:ba07:d110:aa76%eth0</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>ffff:ffff:ffff:ffff::</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>b8:27:eb:6a:ed:90</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2021-04-13</t>
+          <t>2021-04-24</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>22:57:01</t>
+          <t>19:33:56</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>34</v>
+        <v>13217069</v>
       </c>
       <c r="H9" t="n">
-        <v>318.1640625</v>
+        <v>25513071</v>
       </c>
       <c r="I9" t="n">
-        <v>926.078125</v>
+        <v>64701</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>99.99609375</v>
-      </c>
-      <c r="M9" t="n">
-        <v>7</v>
-      </c>
-      <c r="N9" t="n">
-        <v>51.7</v>
+        <v>80289</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>192.168.8.48_22</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>192.168.8.102_52619</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>b8:27:eb:3f:b8:c5</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>'3.945068359375 GB'</t>
+          <t>192.168.8.48</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>'22.3203125 MB'</t>
-        </is>
-      </c>
-      <c r="Q9" t="n">
-        <v>52.616</v>
-      </c>
-      <c r="R9" t="n">
-        <v>118</v>
+          <t>255.255.255.0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>fd20:54fa:bd3b:af00:7d4:18e1:3330:3d18</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>ffff:ffff:ffff:ffff::</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>fe80::6fe0:ba07:d110:aa76%eth0</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>ffff:ffff:ffff:ffff::</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>b8:27:eb:6a:ed:90</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2021-04-13</t>
+          <t>2021-04-24</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>22:57:04</t>
+          <t>19:34:12</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>34</v>
+        <v>13218141</v>
       </c>
       <c r="H10" t="n">
-        <v>318.1640625</v>
+        <v>25514667</v>
       </c>
       <c r="I10" t="n">
-        <v>926.078125</v>
+        <v>64715</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>99.99609375</v>
-      </c>
-      <c r="M10" t="n">
-        <v>7</v>
-      </c>
-      <c r="N10" t="n">
-        <v>51.7</v>
+        <v>80307</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>192.168.8.48_22</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>192.168.8.102_52619</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>b8:27:eb:3f:b8:c5</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>'3.945068359375 GB'</t>
+          <t>192.168.8.48</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>'22.3203125 MB'</t>
-        </is>
-      </c>
-      <c r="Q10" t="n">
-        <v>52.616</v>
-      </c>
-      <c r="R10" t="n">
-        <v>118</v>
+          <t>255.255.255.0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>fd20:54fa:bd3b:af00:7d4:18e1:3330:3d18</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>ffff:ffff:ffff:ffff::</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>fe80::6fe0:ba07:d110:aa76%eth0</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>ffff:ffff:ffff:ffff::</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>b8:27:eb:6a:ed:90</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2021-04-13</t>
+          <t>2021-04-24</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>22:57:07</t>
+          <t>19:34:28</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>34</v>
+        <v>13219213</v>
       </c>
       <c r="H11" t="n">
-        <v>318.1640625</v>
+        <v>25515891</v>
       </c>
       <c r="I11" t="n">
-        <v>926.078125</v>
+        <v>64729</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>99.99609375</v>
-      </c>
-      <c r="M11" t="n">
-        <v>7</v>
-      </c>
-      <c r="N11" t="n">
-        <v>51.7</v>
+        <v>80322</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>192.168.8.48_22</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>192.168.8.102_52619</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>b8:27:eb:3f:b8:c5</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>'3.945068359375 GB'</t>
+          <t>192.168.8.48</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>'22.3203125 MB'</t>
-        </is>
-      </c>
-      <c r="Q11" t="n">
-        <v>52.616</v>
-      </c>
-      <c r="R11" t="n">
-        <v>117</v>
+          <t>255.255.255.0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>fd20:54fa:bd3b:af00:7d4:18e1:3330:3d18</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>ffff:ffff:ffff:ffff::</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>fe80::6fe0:ba07:d110:aa76%eth0</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>ffff:ffff:ffff:ffff::</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>b8:27:eb:6a:ed:90</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2021-04-13</t>
+          <t>2021-04-24</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>22:57:10</t>
+          <t>19:34:43</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>34</v>
+        <v>13220329</v>
       </c>
       <c r="H12" t="n">
-        <v>318.15625</v>
+        <v>25517069</v>
       </c>
       <c r="I12" t="n">
-        <v>926.078125</v>
+        <v>64743</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>99.99609375</v>
-      </c>
-      <c r="M12" t="n">
-        <v>7</v>
-      </c>
-      <c r="N12" t="n">
-        <v>51.7</v>
+        <v>80337</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>192.168.8.48_22</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>192.168.8.102_52619</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>b8:27:eb:3f:b8:c5</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>'3.945068359375 GB'</t>
+          <t>192.168.8.48</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>'22.3203125 MB'</t>
-        </is>
-      </c>
-      <c r="Q12" t="n">
-        <v>52.616</v>
-      </c>
-      <c r="R12" t="n">
-        <v>116</v>
+          <t>255.255.255.0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>fd20:54fa:bd3b:af00:7d4:18e1:3330:3d18</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>ffff:ffff:ffff:ffff::</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>fe80::6fe0:ba07:d110:aa76%eth0</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>ffff:ffff:ffff:ffff::</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>b8:27:eb:6a:ed:90</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2021-04-13</t>
+          <t>2021-04-24</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>22:57:13</t>
+          <t>19:34:59</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>34</v>
+        <v>13221445</v>
       </c>
       <c r="H13" t="n">
-        <v>318.1015625</v>
+        <v>25518187</v>
       </c>
       <c r="I13" t="n">
-        <v>926.078125</v>
+        <v>64757</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>99.99609375</v>
-      </c>
-      <c r="M13" t="n">
-        <v>7</v>
-      </c>
-      <c r="N13" t="n">
-        <v>51.7</v>
+        <v>80351</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>192.168.8.48_22</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>192.168.8.102_52619</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>b8:27:eb:3f:b8:c5</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>'3.945068359375 GB'</t>
+          <t>192.168.8.48</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>'22.3203125 MB'</t>
-        </is>
-      </c>
-      <c r="Q13" t="n">
-        <v>52.616</v>
-      </c>
-      <c r="R13" t="n">
-        <v>116</v>
+          <t>255.255.255.0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>fd20:54fa:bd3b:af00:7d4:18e1:3330:3d18</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>ffff:ffff:ffff:ffff::</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>fe80::6fe0:ba07:d110:aa76%eth0</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>ffff:ffff:ffff:ffff::</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>b8:27:eb:6a:ed:90</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2021-04-13</t>
+          <t>2021-04-24</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>22:57:16</t>
+          <t>19:35:15</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>34</v>
+        <v>13222517</v>
       </c>
       <c r="H14" t="n">
-        <v>318.3359375</v>
+        <v>25519763</v>
       </c>
       <c r="I14" t="n">
-        <v>926.078125</v>
+        <v>64771</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>99.99609375</v>
-      </c>
-      <c r="M14" t="n">
-        <v>7</v>
-      </c>
-      <c r="N14" t="n">
-        <v>51.7</v>
+        <v>80372</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>192.168.8.48_22</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>192.168.8.102_52619</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>b8:27:eb:3f:b8:c5</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>'3.945068359375 GB'</t>
+          <t>192.168.8.48</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>'22.3203125 MB'</t>
-        </is>
-      </c>
-      <c r="Q14" t="n">
-        <v>52.616</v>
-      </c>
-      <c r="R14" t="n">
-        <v>115</v>
+          <t>255.255.255.0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>fd20:54fa:bd3b:af00:7d4:18e1:3330:3d18</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>ffff:ffff:ffff:ffff::</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>fe80::6fe0:ba07:d110:aa76%eth0</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>ffff:ffff:ffff:ffff::</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>b8:27:eb:6a:ed:90</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2021-04-13</t>
+          <t>2021-04-24</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>22:57:19</t>
+          <t>19:35:31</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>34</v>
+        <v>13223787</v>
       </c>
       <c r="H15" t="n">
-        <v>318.3359375</v>
+        <v>25521640</v>
       </c>
       <c r="I15" t="n">
-        <v>926.078125</v>
+        <v>64788</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>99.99609375</v>
-      </c>
-      <c r="M15" t="n">
-        <v>7</v>
-      </c>
-      <c r="N15" t="n">
-        <v>51.7</v>
+        <v>80394</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>192.168.8.48_22</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>192.168.8.102_52619</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>b8:27:eb:3f:b8:c5</t>
+        </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>'3.945068359375 GB'</t>
+          <t>192.168.8.48</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>'22.3203125 MB'</t>
-        </is>
-      </c>
-      <c r="Q15" t="n">
-        <v>52.616</v>
-      </c>
-      <c r="R15" t="n">
-        <v>115</v>
+          <t>255.255.255.0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>fd20:54fa:bd3b:af00:7d4:18e1:3330:3d18</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>ffff:ffff:ffff:ffff::</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>fe80::6fe0:ba07:d110:aa76%eth0</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>ffff:ffff:ffff:ffff::</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>b8:27:eb:6a:ed:90</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2021-04-13</t>
+          <t>2021-04-24</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>22:57:22</t>
+          <t>19:35:47</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>34</v>
+        <v>13225119</v>
       </c>
       <c r="H16" t="n">
-        <v>318.3359375</v>
+        <v>25524152</v>
       </c>
       <c r="I16" t="n">
-        <v>926.078125</v>
+        <v>64804</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>99.99609375</v>
-      </c>
-      <c r="M16" t="n">
-        <v>7</v>
-      </c>
-      <c r="N16" t="n">
-        <v>51.7</v>
+        <v>80426</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>192.168.8.48_22</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>192.168.8.102_52619</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>b8:27:eb:3f:b8:c5</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>'3.945068359375 GB'</t>
+          <t>192.168.8.48</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>'22.3203125 MB'</t>
-        </is>
-      </c>
-      <c r="Q16" t="n">
-        <v>52.616</v>
-      </c>
-      <c r="R16" t="n">
-        <v>115</v>
+          <t>255.255.255.0</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>fd20:54fa:bd3b:af00:7d4:18e1:3330:3d18</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>ffff:ffff:ffff:ffff::</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>fe80::6fe0:ba07:d110:aa76%eth0</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>ffff:ffff:ffff:ffff::</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>b8:27:eb:6a:ed:90</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2021-04-13</t>
+          <t>2021-04-24</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>22:57:25</t>
+          <t>19:36:03</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>34</v>
+        <v>13226137</v>
       </c>
       <c r="H17" t="n">
-        <v>318.3359375</v>
+        <v>25525357</v>
       </c>
       <c r="I17" t="n">
-        <v>926.078125</v>
+        <v>64817</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>99.99609375</v>
-      </c>
-      <c r="M17" t="n">
-        <v>7</v>
-      </c>
-      <c r="N17" t="n">
-        <v>51.7</v>
+        <v>80441</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>192.168.8.48_22</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>192.168.8.102_52619</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>b8:27:eb:3f:b8:c5</t>
+        </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>'3.945068359375 GB'</t>
+          <t>192.168.8.48</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>'22.3203125 MB'</t>
-        </is>
-      </c>
-      <c r="Q17" t="n">
-        <v>52.616</v>
-      </c>
-      <c r="R17" t="n">
-        <v>115</v>
+          <t>255.255.255.0</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>fd20:54fa:bd3b:af00:7d4:18e1:3330:3d18</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>ffff:ffff:ffff:ffff::</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>fe80::6fe0:ba07:d110:aa76%eth0</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>ffff:ffff:ffff:ffff::</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>b8:27:eb:6a:ed:90</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2021-04-13</t>
+          <t>2021-04-24</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>22:57:28</t>
+          <t>19:36:19</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>34</v>
+        <v>13227351</v>
       </c>
       <c r="H18" t="n">
-        <v>318.3359375</v>
+        <v>25526655</v>
       </c>
       <c r="I18" t="n">
-        <v>926.078125</v>
+        <v>64832</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>99.99609375</v>
-      </c>
-      <c r="M18" t="n">
-        <v>7</v>
-      </c>
-      <c r="N18" t="n">
-        <v>51.7</v>
+        <v>80458</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>192.168.8.48_22</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>192.168.8.102_52619</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>b8:27:eb:3f:b8:c5</t>
+        </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>'3.945068359375 GB'</t>
+          <t>192.168.8.48</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>'22.3203125 MB'</t>
-        </is>
-      </c>
-      <c r="Q18" t="n">
-        <v>52.616</v>
-      </c>
-      <c r="R18" t="n">
-        <v>115</v>
+          <t>255.255.255.0</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>fd20:54fa:bd3b:af00:7d4:18e1:3330:3d18</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>ffff:ffff:ffff:ffff::</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>fe80::6fe0:ba07:d110:aa76%eth0</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>ffff:ffff:ffff:ffff::</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>b8:27:eb:6a:ed:90</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2021-04-24</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>19:36:35</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>13228369</v>
+      </c>
+      <c r="H19" t="n">
+        <v>25528133</v>
+      </c>
+      <c r="I19" t="n">
+        <v>64845</v>
+      </c>
+      <c r="J19" t="n">
+        <v>80478</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>192.168.8.48_22</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>192.168.8.102_52619</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>b8:27:eb:3f:b8:c5</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>192.168.8.48</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>255.255.255.0</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>fd20:54fa:bd3b:af00:7d4:18e1:3330:3d18</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>ffff:ffff:ffff:ffff::</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>fe80::6fe0:ba07:d110:aa76%eth0</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>ffff:ffff:ffff:ffff::</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>b8:27:eb:6a:ed:90</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2021-04-24</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>19:36:51</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>13229495</v>
+      </c>
+      <c r="H20" t="n">
+        <v>25529927</v>
+      </c>
+      <c r="I20" t="n">
+        <v>64860</v>
+      </c>
+      <c r="J20" t="n">
+        <v>80502</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>192.168.8.48_22</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>192.168.8.102_52619</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>b8:27:eb:3f:b8:c5</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>192.168.8.48</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>255.255.255.0</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>fd20:54fa:bd3b:af00:7d4:18e1:3330:3d18</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>ffff:ffff:ffff:ffff::</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>fe80::6fe0:ba07:d110:aa76%eth0</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>ffff:ffff:ffff:ffff::</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>b8:27:eb:6a:ed:90</t>
+        </is>
       </c>
     </row>
   </sheetData>
